--- a/sample_input.xlsx
+++ b/sample_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jas0123\curriculog_excel_sheet_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B15FEF9-D2D9-44B5-8C67-1482E06B41DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C0170-41B1-43D3-8F27-A0D528EA9B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{125E1219-2066-4676-87E7-42C796F6CDDF}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" xr2:uid="{125E1219-2066-4676-87E7-42C796F6CDDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
